--- a/data/T29R10_data.xlsx
+++ b/data/T29R10_data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtstevens/Documents/New Mexico/USGS/Research/Sage GLO/Sage_GLO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A597F0-FC55-424B-9B43-0658671D6B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31D0109-CD16-484C-A72E-C1C9AA392CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB609BF1-C2AA-48E3-B38E-C7DC662A1D37}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{BB609BF1-C2AA-48E3-B38E-C7DC662A1D37}"/>
   </bookViews>
   <sheets>
-    <sheet name="1880s" sheetId="1" r:id="rId1"/>
+    <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1880s summary" sheetId="2" r:id="rId2"/>
-    <sheet name="1940s" sheetId="3" r:id="rId3"/>
+    <sheet name="1940Survey" sheetId="3" r:id="rId3"/>
+    <sheet name="1880Metadata" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -347,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="172">
   <si>
     <t>Survey_type</t>
   </si>
@@ -860,6 +861,9 @@
   </si>
   <si>
     <t xml:space="preserve">General description: Considerable pinon and cedar timber. Sage brush groves rare on the prarie. Well adapt for sheep raising, which it is now used. Gramma and bunch grass, grove (?) in abundance </t>
+  </si>
+  <si>
+    <t>Actually surveyed in 1881; tab reads 1880 for consistency in the data processing R script</t>
   </si>
 </sst>
 </file>
@@ -1280,24 +1284,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D3360C-EACB-46A0-B7F6-0486EBC19572}">
   <dimension ref="A1:AD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="55.5546875" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="55.5" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1375,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
         <v>21</v>
       </c>
@@ -1382,7 +1386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1556,7 +1560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1585,7 +1589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1643,7 +1647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1672,7 +1676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1730,7 +1734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1788,7 +1792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1875,7 +1879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +1937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1991,7 +1995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2078,7 +2082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2136,7 +2140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2165,7 +2169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2223,7 +2227,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2252,7 +2256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2281,7 +2285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -2342,7 +2346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -2487,7 +2491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -2545,7 +2549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -2574,7 +2578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -2632,7 +2636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -2661,7 +2665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -2780,7 +2784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -2838,7 +2842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -2896,7 +2900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -2954,7 +2958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3012,7 +3016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -3070,7 +3074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -3128,7 +3132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>24</v>
       </c>
@@ -3212,7 +3216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>24</v>
       </c>
@@ -3238,7 +3242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>24</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>24</v>
       </c>
@@ -3290,7 +3294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>24</v>
       </c>
@@ -3316,7 +3320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>24</v>
       </c>
@@ -3342,7 +3346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>24</v>
       </c>
@@ -3368,7 +3372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>24</v>
       </c>
@@ -3394,7 +3398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>24</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>24</v>
       </c>
@@ -3446,7 +3450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>24</v>
       </c>
@@ -3472,7 +3476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>24</v>
       </c>
@@ -3498,7 +3502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>24</v>
       </c>
@@ -3524,7 +3528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>24</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>24</v>
       </c>
@@ -3576,7 +3580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>24</v>
       </c>
@@ -3622,12 +3626,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="161.77734375" customWidth="1"/>
+    <col min="1" max="1" width="161.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -3642,22 +3646,22 @@
   <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
     <col min="9" max="9" width="28.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" customWidth="1"/>
-    <col min="11" max="11" width="21.21875" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3740,4 +3744,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7222555A-9380-DC45-AD2C-0F78ED907814}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/T29R10_data.xlsx
+++ b/data/T29R10_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtstevens/Documents/New Mexico/USGS/Research/Sage GLO/Sage_GLO/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31D0109-CD16-484C-A72E-C1C9AA392CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77401C84-12C1-4F9D-A6F3-671D0BFDAD08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{BB609BF1-C2AA-48E3-B38E-C7DC662A1D37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB609BF1-C2AA-48E3-B38E-C7DC662A1D37}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="172">
   <si>
     <t>Survey_type</t>
   </si>
@@ -1284,24 +1284,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D3360C-EACB-46A0-B7F6-0486EBC19572}">
   <dimension ref="A1:AD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="55.5" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="55.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I2" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -3190,7 +3190,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
       <c r="B65" t="s">
         <v>24</v>
       </c>
@@ -3216,7 +3219,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
       <c r="B66" t="s">
         <v>24</v>
       </c>
@@ -3242,7 +3248,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
       <c r="B67" t="s">
         <v>24</v>
       </c>
@@ -3268,7 +3277,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
       <c r="B68" t="s">
         <v>24</v>
       </c>
@@ -3294,7 +3306,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
       <c r="B69" t="s">
         <v>24</v>
       </c>
@@ -3320,7 +3335,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
       <c r="B70" t="s">
         <v>24</v>
       </c>
@@ -3346,7 +3364,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
       <c r="B71" t="s">
         <v>24</v>
       </c>
@@ -3372,7 +3393,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
       <c r="B72" t="s">
         <v>24</v>
       </c>
@@ -3398,7 +3422,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
       <c r="B73" t="s">
         <v>24</v>
       </c>
@@ -3424,7 +3451,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
       <c r="B74" t="s">
         <v>24</v>
       </c>
@@ -3450,7 +3480,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
       <c r="B75" t="s">
         <v>24</v>
       </c>
@@ -3476,7 +3509,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
       <c r="B76" t="s">
         <v>24</v>
       </c>
@@ -3502,7 +3538,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
       <c r="B77" t="s">
         <v>24</v>
       </c>
@@ -3528,7 +3567,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
       <c r="B78" t="s">
         <v>24</v>
       </c>
@@ -3554,7 +3596,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
       <c r="B79" t="s">
         <v>24</v>
       </c>
@@ -3580,7 +3625,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
       <c r="B80" t="s">
         <v>24</v>
       </c>
@@ -3626,12 +3674,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="161.83203125" customWidth="1"/>
+    <col min="1" max="1" width="161.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -3649,19 +3697,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" customWidth="1"/>
     <col min="9" max="9" width="28.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3752,9 +3800,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>171</v>
       </c>

--- a/data/T29R10_data.xlsx
+++ b/data/T29R10_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77401C84-12C1-4F9D-A6F3-671D0BFDAD08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC97EB3-4693-4472-AAEE-1A2D2091EFC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB609BF1-C2AA-48E3-B38E-C7DC662A1D37}"/>
+    <workbookView xWindow="-25170" yWindow="-5175" windowWidth="20970" windowHeight="13350" activeTab="3" xr2:uid="{BB609BF1-C2AA-48E3-B38E-C7DC662A1D37}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1880s summary" sheetId="2" r:id="rId2"/>
     <sheet name="1940Survey" sheetId="3" r:id="rId3"/>
-    <sheet name="1880Metadata" sheetId="4" r:id="rId4"/>
+    <sheet name="1940Metadata" sheetId="5" r:id="rId4"/>
+    <sheet name="1880Metadata" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -348,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="173">
   <si>
     <t>Survey_type</t>
   </si>
@@ -864,6 +865,9 @@
   </si>
   <si>
     <t>Actually surveyed in 1881; tab reads 1880 for consistency in the data processing R script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No 1940 survey, possibly because of land grant </t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D3360C-EACB-46A0-B7F6-0486EBC19572}">
   <dimension ref="A1:AD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3691,10 +3695,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A94290A-75C1-4552-9FA0-8D0ED0B90916}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3783,6 +3787,71 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
     </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -3795,6 +3864,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC095582-773B-4AA0-93B1-B739067CFB80}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7222555A-9380-DC45-AD2C-0F78ED907814}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/T29R10_data.xlsx
+++ b/data/T29R10_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC97EB3-4693-4472-AAEE-1A2D2091EFC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3DB287-5DF9-4B27-927C-2E93F05CBF28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25170" yWindow="-5175" windowWidth="20970" windowHeight="13350" activeTab="3" xr2:uid="{BB609BF1-C2AA-48E3-B38E-C7DC662A1D37}"/>
+    <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BB609BF1-C2AA-48E3-B38E-C7DC662A1D37}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="166">
   <si>
     <t>Survey_type</t>
   </si>
@@ -498,24 +498,6 @@
     <t>29-10-6-W</t>
   </si>
   <si>
-    <t>30-10-31-S</t>
-  </si>
-  <si>
-    <t>30-10-32-S</t>
-  </si>
-  <si>
-    <t>30-10-33-S</t>
-  </si>
-  <si>
-    <t>30-10-34-S</t>
-  </si>
-  <si>
-    <t>30-10-35-S</t>
-  </si>
-  <si>
-    <t>30-10-36-S</t>
-  </si>
-  <si>
     <t>29-10-36-W</t>
   </si>
   <si>
@@ -526,9 +508,6 @@
   </si>
   <si>
     <t>Land rolling, bunch and gramma grass</t>
-  </si>
-  <si>
-    <t>July 28 1881</t>
   </si>
   <si>
     <t>sparse</t>
@@ -1288,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D3360C-EACB-46A0-B7F6-0486EBC19572}">
   <dimension ref="A1:AD80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,8 +1359,26 @@
       <c r="AD1" s="5"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -1398,7 +1395,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1407,16 +1404,16 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
@@ -1427,19 +1424,19 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -1456,25 +1453,25 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -1485,19 +1482,19 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
@@ -1514,25 +1511,25 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
@@ -1543,25 +1540,25 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
@@ -1572,25 +1569,25 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
         <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
@@ -1601,7 +1598,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -1610,10 +1607,10 @@
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
@@ -1630,7 +1627,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1639,16 +1636,16 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
         <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
@@ -1659,7 +1656,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1671,7 +1668,7 @@
         <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -1688,7 +1685,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1700,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
@@ -1717,7 +1714,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -1729,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
         <v>22</v>
@@ -1746,7 +1743,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1755,10 +1752,10 @@
         <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s">
         <v>22</v>
@@ -1775,19 +1772,19 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
@@ -1804,19 +1801,19 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
         <v>22</v>
@@ -1833,19 +1830,19 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
         <v>22</v>
@@ -1862,19 +1859,19 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="J19" t="s">
         <v>22</v>
@@ -1891,7 +1888,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -1900,16 +1897,16 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="J20" t="s">
         <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1920,19 +1917,19 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
         <v>22</v>
@@ -1949,7 +1946,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1958,10 +1955,10 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s">
         <v>22</v>
@@ -1978,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
@@ -1990,7 +1987,7 @@
         <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s">
         <v>22</v>
@@ -2007,7 +2004,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -2019,7 +2016,7 @@
         <v>28</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
@@ -2036,7 +2033,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -2048,7 +2045,7 @@
         <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s">
         <v>22</v>
@@ -2065,7 +2062,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -2074,10 +2071,10 @@
         <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J26" t="s">
         <v>22</v>
@@ -2094,7 +2091,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
@@ -2103,10 +2100,10 @@
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s">
         <v>22</v>
@@ -2123,7 +2120,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -2135,10 +2132,13 @@
         <v>28</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
+      </c>
+      <c r="K28" t="s">
+        <v>117</v>
       </c>
       <c r="L28" t="s">
         <v>23</v>
@@ -2152,7 +2152,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
@@ -2161,10 +2161,10 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="J29" t="s">
         <v>22</v>
@@ -2181,7 +2181,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
@@ -2190,10 +2190,10 @@
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I30" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
         <v>22</v>
@@ -2210,7 +2210,7 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
         <v>27</v>
@@ -2222,13 +2222,13 @@
         <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="J31" t="s">
         <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -2239,19 +2239,19 @@
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
         <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="J32" t="s">
         <v>22</v>
@@ -2268,19 +2268,19 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
         <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
         <v>42</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="J33" t="s">
         <v>22</v>
@@ -2297,25 +2297,22 @@
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="J34" t="s">
         <v>22</v>
-      </c>
-      <c r="K34" t="s">
-        <v>90</v>
       </c>
       <c r="L34" t="s">
         <v>23</v>
@@ -2329,19 +2326,19 @@
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
         <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s">
         <v>22</v>
@@ -2358,7 +2355,7 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
@@ -2367,10 +2364,10 @@
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I36" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="J36" t="s">
         <v>22</v>
@@ -2387,7 +2384,7 @@
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -2396,10 +2393,10 @@
         <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="J37" t="s">
         <v>22</v>
@@ -2416,7 +2413,7 @@
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
@@ -2428,7 +2425,7 @@
         <v>28</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="J38" t="s">
         <v>22</v>
@@ -2445,7 +2442,7 @@
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
@@ -2454,10 +2451,10 @@
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I39" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="J39" t="s">
         <v>22</v>
@@ -2474,19 +2471,19 @@
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I40" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="J40" t="s">
         <v>22</v>
@@ -2503,19 +2500,19 @@
         <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I41" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="J41" t="s">
         <v>22</v>
@@ -2532,25 +2529,25 @@
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G42" t="s">
         <v>42</v>
       </c>
       <c r="I42" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="J42" t="s">
         <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2561,7 +2558,7 @@
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -2570,10 +2567,10 @@
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J43" t="s">
         <v>22</v>
@@ -2590,19 +2587,19 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I44" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s">
         <v>22</v>
@@ -2619,7 +2616,7 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
@@ -2628,10 +2625,10 @@
         <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I45" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s">
         <v>22</v>
@@ -2648,7 +2645,7 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
@@ -2657,10 +2654,10 @@
         <v>28</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I46" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s">
         <v>22</v>
@@ -2677,7 +2674,7 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
@@ -2689,7 +2686,7 @@
         <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s">
         <v>22</v>
@@ -2706,7 +2703,7 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
@@ -2715,16 +2712,13 @@
         <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I48" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="J48" t="s">
         <v>22</v>
-      </c>
-      <c r="K48" t="s">
-        <v>124</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
@@ -2738,7 +2732,7 @@
         <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
@@ -2747,10 +2741,10 @@
         <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="J49" t="s">
         <v>22</v>
@@ -2767,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
@@ -2779,7 +2773,7 @@
         <v>42</v>
       </c>
       <c r="I50" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s">
         <v>22</v>
@@ -2796,7 +2790,7 @@
         <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
@@ -2805,13 +2799,16 @@
         <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I51" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s">
         <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>83</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -2825,19 +2822,19 @@
         <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="J52" t="s">
         <v>22</v>
@@ -2854,25 +2851,25 @@
         <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I53" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J53" t="s">
         <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2883,7 +2880,7 @@
         <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
@@ -2892,10 +2889,10 @@
         <v>28</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I54" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J54" t="s">
         <v>22</v>
@@ -2912,7 +2909,7 @@
         <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
@@ -2924,7 +2921,7 @@
         <v>28</v>
       </c>
       <c r="I55" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J55" t="s">
         <v>22</v>
@@ -2941,7 +2938,7 @@
         <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
@@ -2953,7 +2950,7 @@
         <v>28</v>
       </c>
       <c r="I56" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="J56" t="s">
         <v>22</v>
@@ -2970,7 +2967,7 @@
         <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
         <v>27</v>
@@ -2982,7 +2979,7 @@
         <v>28</v>
       </c>
       <c r="I57" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="J57" t="s">
         <v>22</v>
@@ -2999,7 +2996,7 @@
         <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
@@ -3011,7 +3008,7 @@
         <v>28</v>
       </c>
       <c r="I58" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="J58" t="s">
         <v>22</v>
@@ -3028,7 +3025,7 @@
         <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
@@ -3040,7 +3037,7 @@
         <v>28</v>
       </c>
       <c r="I59" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="J59" t="s">
         <v>22</v>
@@ -3057,7 +3054,7 @@
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
@@ -3066,16 +3063,16 @@
         <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I60" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="J60" t="s">
         <v>22</v>
       </c>
       <c r="L60" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3086,19 +3083,19 @@
         <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G61" t="s">
         <v>42</v>
       </c>
       <c r="I61" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="J61" t="s">
         <v>22</v>
@@ -3115,19 +3112,19 @@
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I62" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="J62" t="s">
         <v>22</v>
@@ -3144,19 +3141,19 @@
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
         <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I63" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="J63" t="s">
         <v>22</v>
@@ -3173,25 +3170,25 @@
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I64" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="J64" t="s">
         <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3202,7 +3199,7 @@
         <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
@@ -3211,10 +3208,10 @@
         <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I65" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="J65" t="s">
         <v>22</v>
@@ -3231,7 +3228,7 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
@@ -3243,7 +3240,7 @@
         <v>28</v>
       </c>
       <c r="I66" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="J66" t="s">
         <v>22</v>
@@ -3260,7 +3257,7 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
         <v>27</v>
@@ -3272,7 +3269,7 @@
         <v>28</v>
       </c>
       <c r="I67" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="J67" t="s">
         <v>22</v>
@@ -3289,7 +3286,7 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
         <v>27</v>
@@ -3298,10 +3295,10 @@
         <v>28</v>
       </c>
       <c r="G68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I68" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="J68" t="s">
         <v>22</v>
@@ -3318,19 +3315,19 @@
         <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
         <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I69" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="J69" t="s">
         <v>22</v>
@@ -3347,7 +3344,7 @@
         <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
         <v>27</v>
@@ -3356,10 +3353,10 @@
         <v>28</v>
       </c>
       <c r="G70" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I70" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="J70" t="s">
         <v>22</v>
@@ -3376,7 +3373,7 @@
         <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
@@ -3385,10 +3382,10 @@
         <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I71" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="J71" t="s">
         <v>22</v>
@@ -3405,7 +3402,7 @@
         <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="D72" t="s">
         <v>27</v>
@@ -3414,10 +3411,10 @@
         <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I72" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="J72" t="s">
         <v>22</v>
@@ -3434,7 +3431,7 @@
         <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="D73" t="s">
         <v>27</v>
@@ -3446,7 +3443,7 @@
         <v>42</v>
       </c>
       <c r="I73" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="J73" t="s">
         <v>22</v>
@@ -3455,210 +3452,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" t="s">
-        <v>149</v>
-      </c>
-      <c r="D74" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" t="s">
-        <v>42</v>
-      </c>
-      <c r="I74" t="s">
-        <v>166</v>
-      </c>
-      <c r="J74" t="s">
-        <v>22</v>
-      </c>
-      <c r="L74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" t="s">
-        <v>42</v>
-      </c>
-      <c r="I75" t="s">
-        <v>57</v>
-      </c>
-      <c r="J75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L75" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" t="s">
-        <v>42</v>
-      </c>
-      <c r="I76" t="s">
-        <v>167</v>
-      </c>
-      <c r="J76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" t="s">
-        <v>152</v>
-      </c>
-      <c r="D77" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77" t="s">
-        <v>42</v>
-      </c>
-      <c r="I77" t="s">
-        <v>168</v>
-      </c>
-      <c r="J77" t="s">
-        <v>22</v>
-      </c>
-      <c r="L77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" t="s">
-        <v>153</v>
-      </c>
-      <c r="D78" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" t="s">
-        <v>42</v>
-      </c>
-      <c r="I78" t="s">
-        <v>84</v>
-      </c>
-      <c r="J78" t="s">
-        <v>22</v>
-      </c>
-      <c r="L78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>25</v>
-      </c>
-      <c r="B79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" t="s">
-        <v>154</v>
-      </c>
-      <c r="D79" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" t="s">
-        <v>42</v>
-      </c>
-      <c r="I79" t="s">
-        <v>84</v>
-      </c>
-      <c r="J79" t="s">
-        <v>22</v>
-      </c>
-      <c r="L79" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" t="s">
-        <v>155</v>
-      </c>
-      <c r="D80" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" t="s">
-        <v>28</v>
-      </c>
-      <c r="G80" t="s">
-        <v>42</v>
-      </c>
       <c r="I80" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="J80" t="s">
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U80">
+    <sortCondition ref="C1"/>
+  </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D1">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
@@ -3685,7 +3493,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +3505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A94290A-75C1-4552-9FA0-8D0ED0B90916}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -3867,7 +3675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC095582-773B-4AA0-93B1-B739067CFB80}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3875,7 +3683,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +3701,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/T29R10_data.xlsx
+++ b/data/T29R10_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE484E5D-6D37-413D-82A5-DC92148C297A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B09A64-0C96-4072-8628-1747BEA296A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="1830" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{BB609BF1-C2AA-48E3-B38E-C7DC662A1D37}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BB609BF1-C2AA-48E3-B38E-C7DC662A1D37}"/>
   </bookViews>
   <sheets>
     <sheet name="1880Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1880s summary" sheetId="2" r:id="rId2"/>
     <sheet name="1940Survey" sheetId="3" r:id="rId3"/>
-    <sheet name="2004Survey" sheetId="6" r:id="rId4"/>
+    <sheet name="2019Survey" sheetId="6" r:id="rId4"/>
     <sheet name="1940Metadata" sheetId="5" r:id="rId5"/>
     <sheet name="1880Metadata" sheetId="4" r:id="rId6"/>
   </sheets>
@@ -3682,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197E65E2-17F4-4302-B747-81A91E907320}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3843,7 +3843,7 @@
         <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4129,7 +4129,7 @@
         <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4261,7 +4261,7 @@
         <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4349,7 +4349,7 @@
         <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/T29R10_data.xlsx
+++ b/data/T29R10_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B09A64-0C96-4072-8628-1747BEA296A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962416AC-B195-4D53-8998-D94657942409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BB609BF1-C2AA-48E3-B38E-C7DC662A1D37}"/>
   </bookViews>
@@ -3682,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197E65E2-17F4-4302-B747-81A91E907320}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4239,7 +4239,7 @@
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4382,7 +4382,7 @@
         <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
